--- a/_doc/batch/cattleManage_Batch.xlsx
+++ b/_doc/batch/cattleManage_Batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\Source Code\taifCattle\_doc\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AB53F3-C52D-424B-A5AA-8D40FF843FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B8F9E-5DB8-4917-A536-2A3B05DF5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3C9CDDF-D8D1-47E5-8DEF-D0576B6D6A71}"/>
+    <workbookView xWindow="28800" yWindow="615" windowWidth="17355" windowHeight="9825" xr2:uid="{A3C9CDDF-D8D1-47E5-8DEF-D0576B6D6A71}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -47,15 +47,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>畜牧場證號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">牛籍備註（身分證字號） </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>類型（出生/轉入/勸售）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛籍備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">畜牧場證號（身分證字號） </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,19 +423,19 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -452,16 +452,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/_doc/batch/cattleManage_Batch.xlsx
+++ b/_doc/batch/cattleManage_Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\Source Code\taifCattle\_doc\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B8F9E-5DB8-4917-A536-2A3B05DF5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23467F2A-E20B-4611-8A18-88ECD798206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="615" windowWidth="17355" windowHeight="9825" xr2:uid="{A3C9CDDF-D8D1-47E5-8DEF-D0576B6D6A71}"/>
+    <workbookView xWindow="33255" yWindow="1845" windowWidth="17355" windowHeight="9825" xr2:uid="{A3C9CDDF-D8D1-47E5-8DEF-D0576B6D6A71}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -102,8 +102,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,44 +426,45 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/_doc/batch/cattleManage_Batch.xlsx
+++ b/_doc/batch/cattleManage_Batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\保牛\Source Code\taifCattle\_doc\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23467F2A-E20B-4611-8A18-88ECD798206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3F79B-69D3-498E-8734-E0E9C48D3F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33255" yWindow="1845" windowWidth="17355" windowHeight="9825" xr2:uid="{A3C9CDDF-D8D1-47E5-8DEF-D0576B6D6A71}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A3C9CDDF-D8D1-47E5-8DEF-D0576B6D6A71}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>牛籍編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛籍編號備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品項</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出生年度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,15 +35,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>類型（出生/轉入/勸售）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛籍備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">畜牧場證號（身分證字號） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛籍編號（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品項（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型（出生/停留/勸售）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,14 +426,14 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -444,32 +444,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>